--- a/Employee_Reports35/Nhuel Caguicla Landicho Q0329.xlsx
+++ b/Employee_Reports35/Nhuel Caguicla Landicho Q0329.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -756,11 +756,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -793,11 +793,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">

--- a/Employee_Reports35/Nhuel Caguicla Landicho Q0329.xlsx
+++ b/Employee_Reports35/Nhuel Caguicla Landicho Q0329.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -756,11 +756,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -793,11 +793,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
